--- a/biology/Médecine/Polyclinique_Volney/Polyclinique_Volney.xlsx
+++ b/biology/Médecine/Polyclinique_Volney/Polyclinique_Volney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La polyclinique Volney est un établissement de soins privé situé à Rennes, en Bretagne, en activité de 1985 à 2004.
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la fin du 19e siècle, une maison de santé est installée au 24 boulevard Volney à Rennes, en Bretagne. Elle est exploitée par une communauté de religieuses catholiques sous le nom de clinique Sainte-Anne. Au cours du 20e siècle, les locaux sont agrandis et modernisés à plusieurs reprises ; l'établissement fait évoluer ses activités suivant les progrès de la médecine, employant également un personnel médical laïc[1].
-En octobre 1985, les religieuses cessent leur activité et la clinique Sainte-Anne est rachetée par des médecins. Le nouvel établissement prend le nom de polyclinique Volney[2].
-Au début des années 1990, la polyclinique Volney est en difficulté financière. En conséquence, sa direction fusionne en janvier 1993 avec celle de la clinique Saint-Vincent, située à Saint-Grégoire au nord de Rennes, dans une nouvelle entreprise nommée Cliniques Privées Associées. Cette dernière rachète trois ans plus tard le centre obstétrico-pédiatrique de Bréquigny, dans le but de fusionner les trois établissements en un seul[3].
-Le nouvel équipement est construit à partir de 2002 sur le site de la clinique Saint-Vincent[3]. Le nouveau centre hospitalier privé de Saint-Grégoire ouvre progressivement au cours de l'année 2004 et la polyclinique Volney est fermée[4].
-Le site est vendu et le bâtiment est démoli en octobre 2004 pour faire place à un programme de logements privés[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin du 19e siècle, une maison de santé est installée au 24 boulevard Volney à Rennes, en Bretagne. Elle est exploitée par une communauté de religieuses catholiques sous le nom de clinique Sainte-Anne. Au cours du 20e siècle, les locaux sont agrandis et modernisés à plusieurs reprises ; l'établissement fait évoluer ses activités suivant les progrès de la médecine, employant également un personnel médical laïc.
+En octobre 1985, les religieuses cessent leur activité et la clinique Sainte-Anne est rachetée par des médecins. Le nouvel établissement prend le nom de polyclinique Volney.
+Au début des années 1990, la polyclinique Volney est en difficulté financière. En conséquence, sa direction fusionne en janvier 1993 avec celle de la clinique Saint-Vincent, située à Saint-Grégoire au nord de Rennes, dans une nouvelle entreprise nommée Cliniques Privées Associées. Cette dernière rachète trois ans plus tard le centre obstétrico-pédiatrique de Bréquigny, dans le but de fusionner les trois établissements en un seul.
+Le nouvel équipement est construit à partir de 2002 sur le site de la clinique Saint-Vincent. Le nouveau centre hospitalier privé de Saint-Grégoire ouvre progressivement au cours de l'année 2004 et la polyclinique Volney est fermée.
+Le site est vendu et le bâtiment est démoli en octobre 2004 pour faire place à un programme de logements privés.
 </t>
         </is>
       </c>
